--- a/HYXT-好友系统.xlsx
+++ b/HYXT-好友系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="好友系统" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <t>好友及私聊系统</t>
   </si>
   <si>
-    <t>1）聊天记录保留在本地。</t>
+    <t>1）聊天记录保留3天。</t>
   </si>
   <si>
     <t>1）点击聊天信息快，进入聊天界面。</t>
@@ -41,14 +41,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,68 +64,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,66 +170,36 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -217,31 +210,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,55 +354,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,91 +384,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,21 +419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -459,8 +437,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,19 +446,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,7 +471,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,148 +506,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -662,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1099,7 +1092,7 @@
   <dimension ref="A2:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
